--- a/zJO/check portefeuille.xlsx
+++ b/zJO/check portefeuille.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="138">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -331,6 +331,9 @@
     <t>gestionLoading</t>
   </si>
   <si>
+    <t>gestionLoadingSA</t>
+  </si>
+  <si>
     <t>fraisFract</t>
   </si>
   <si>
@@ -340,39 +343,75 @@
     <t>POLPRCPLB</t>
   </si>
   <si>
-    <t xml:space="preserve">GKM1995   </t>
+    <t>tauxZill</t>
+  </si>
+  <si>
+    <t>GKM1995</t>
+  </si>
+  <si>
+    <t>EKM1995</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">A  </t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t xml:space="preserve">   </t>
   </si>
   <si>
+    <t>0000</t>
+  </si>
+  <si>
     <t>0203</t>
   </si>
   <si>
+    <t xml:space="preserve">C  </t>
+  </si>
+  <si>
     <t>0204</t>
   </si>
   <si>
+    <t xml:space="preserve">B  </t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
     <t>0206</t>
   </si>
   <si>
+    <t>0210</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHF </t>
   </si>
   <si>
@@ -380,6 +419,15 @@
   </si>
   <si>
     <t>MI3.5</t>
+  </si>
+  <si>
+    <t>MI2.5</t>
+  </si>
+  <si>
+    <t>MI2.0</t>
+  </si>
+  <si>
+    <t>MI0.5</t>
   </si>
 </sst>
 </file>
@@ -743,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DE2"/>
+  <dimension ref="A1:DG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:109">
+    <row r="1" spans="1:111">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,13 +1122,19 @@
       <c r="DE1" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:109">
+    <row r="2" spans="1:111">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2018</v>
@@ -1092,22 +1146,22 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>301</v>
+        <v>2501</v>
       </c>
       <c r="G2">
-        <v>14104.7</v>
+        <v>12024.1</v>
       </c>
       <c r="H2">
-        <v>122.4</v>
+        <v>100.2</v>
       </c>
       <c r="I2">
-        <v>51.3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1116,76 +1170,76 @@
         <v>3.5</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P2">
         <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R2">
-        <v>14607.3</v>
+        <v>12306.8</v>
       </c>
       <c r="S2">
-        <v>14026.3</v>
+        <v>11955.7</v>
       </c>
       <c r="T2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V2" s="2">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="W2" s="2">
-        <v>48244</v>
+        <v>46446</v>
       </c>
       <c r="X2">
-        <v>1070.2</v>
+        <v>1064</v>
       </c>
       <c r="Y2">
-        <v>701.2</v>
+        <v>592.8</v>
       </c>
       <c r="Z2">
-        <v>611.8</v>
+        <v>502.5</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>434.7</v>
+        <v>374.3</v>
       </c>
       <c r="AC2">
-        <v>252.7</v>
+        <v>190.3</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AF2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG2">
         <v>3.5</v>
       </c>
       <c r="AH2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AI2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1194,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>92.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AP2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AQ2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AR2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -1218,34 +1272,34 @@
         <v>0</v>
       </c>
       <c r="AV2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AW2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AX2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AY2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>91.8</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="BC2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="BD2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="BE2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1254,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="BH2">
-        <v>32.1</v>
+        <v>53.2</v>
       </c>
       <c r="BI2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BJ2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="BK2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="BL2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1278,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="BQ2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="BR2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="BS2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1296,19 +1350,19 @@
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="BW2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BX2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="BY2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="BZ2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1329,22 +1383,22 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="CH2">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="CI2">
         <v>0</v>
       </c>
       <c r="CJ2" s="2">
-        <v>24681</v>
+        <v>25240</v>
       </c>
       <c r="CK2" s="2">
-        <v>35462</v>
+        <v>26566</v>
       </c>
       <c r="CL2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="CM2">
         <v>999</v>
@@ -1359,31 +1413,31 @@
         <v>409</v>
       </c>
       <c r="CQ2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CR2">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="CS2">
         <v>0</v>
       </c>
       <c r="CT2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="CU2" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="CV2">
-        <v>14305.9</v>
+        <v>12124.3</v>
       </c>
       <c r="CW2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="CZ2">
         <v>0</v>
@@ -1392,7 +1446,5235 @@
         <v>0</v>
       </c>
       <c r="DC2">
+        <v>0.00425</v>
+      </c>
+      <c r="DD2">
+        <v>1.05</v>
+      </c>
+      <c r="DG2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:111">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3801</v>
+      </c>
+      <c r="G3">
+        <v>18025.6</v>
+      </c>
+      <c r="H3">
+        <v>151.8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>30000</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3.5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3">
+        <v>18459.9</v>
+      </c>
+      <c r="S3">
+        <v>17925.8</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>30</v>
+      </c>
+      <c r="V3" s="2">
+        <v>35521</v>
+      </c>
+      <c r="W3" s="2">
+        <v>46477</v>
+      </c>
+      <c r="X3">
+        <v>1682.1</v>
+      </c>
+      <c r="Y3">
+        <v>929.6</v>
+      </c>
+      <c r="Z3">
+        <v>787.84</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG3">
+        <v>3.5</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>164.4</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>189</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>315</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH3">
+        <v>30000</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>22961</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>23660</v>
+      </c>
+      <c r="CL3">
+        <v>33</v>
+      </c>
+      <c r="CM3">
+        <v>999</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP3">
+        <v>409</v>
+      </c>
+      <c r="CQ3">
+        <v>261</v>
+      </c>
+      <c r="CR3">
+        <v>99</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV3">
+        <v>18177.4</v>
+      </c>
+      <c r="CW3">
+        <v>2</v>
+      </c>
+      <c r="CX3">
         <v>1</v>
+      </c>
+      <c r="CY3">
+        <v>0.11</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0.00425</v>
+      </c>
+      <c r="DD3">
+        <v>1.05</v>
+      </c>
+      <c r="DG3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:111">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>22101</v>
+      </c>
+      <c r="G4">
+        <v>5666.8</v>
+      </c>
+      <c r="H4">
+        <v>107.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>8171.5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3.5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4">
+        <v>5666.8</v>
+      </c>
+      <c r="S4">
+        <v>5655</v>
+      </c>
+      <c r="T4">
+        <v>35</v>
+      </c>
+      <c r="U4">
+        <v>35</v>
+      </c>
+      <c r="V4" s="2">
+        <v>35735</v>
+      </c>
+      <c r="W4" s="2">
+        <v>48518</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>872.5</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>579.7</v>
+      </c>
+      <c r="AC4">
+        <v>400.7</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG4">
+        <v>3.5</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH4">
+        <v>8171.5</v>
+      </c>
+      <c r="CI4">
+        <v>9</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>24370</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>26303</v>
+      </c>
+      <c r="CL4">
+        <v>29</v>
+      </c>
+      <c r="CM4">
+        <v>999</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP4">
+        <v>409</v>
+      </c>
+      <c r="CQ4">
+        <v>254</v>
+      </c>
+      <c r="CR4">
+        <v>166</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV4">
+        <v>5774.3</v>
+      </c>
+      <c r="CW4">
+        <v>5</v>
+      </c>
+      <c r="CX4">
+        <v>3</v>
+      </c>
+      <c r="CY4">
+        <v>0.11</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0.00425</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:111">
+      <c r="A5" s="1">
+        <v>229</v>
+      </c>
+      <c r="B5">
+        <v>229</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>127601</v>
+      </c>
+      <c r="G5">
+        <v>16453.5</v>
+      </c>
+      <c r="H5">
+        <v>89.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>30000</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5">
+        <v>16935.9</v>
+      </c>
+      <c r="S5">
+        <v>16355.1</v>
+      </c>
+      <c r="T5">
+        <v>30</v>
+      </c>
+      <c r="U5">
+        <v>30</v>
+      </c>
+      <c r="V5" s="2">
+        <v>35977</v>
+      </c>
+      <c r="W5" s="2">
+        <v>46934</v>
+      </c>
+      <c r="X5">
+        <v>1613.3</v>
+      </c>
+      <c r="Y5">
+        <v>896.9</v>
+      </c>
+      <c r="Z5">
+        <v>760.2</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>561.5</v>
+      </c>
+      <c r="AC5">
+        <v>292.7</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG5">
+        <v>3.5</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>131.7</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>189</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>80.7</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>315</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH5">
+        <v>30000</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>25141</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>26782</v>
+      </c>
+      <c r="CL5">
+        <v>28</v>
+      </c>
+      <c r="CM5">
+        <v>999</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP5">
+        <v>409</v>
+      </c>
+      <c r="CQ5">
+        <v>246</v>
+      </c>
+      <c r="CR5">
+        <v>114</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV5">
+        <v>16543</v>
+      </c>
+      <c r="CW5">
+        <v>5</v>
+      </c>
+      <c r="CX5">
+        <v>3</v>
+      </c>
+      <c r="CY5">
+        <v>0.11</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0.00425</v>
+      </c>
+      <c r="DD5">
+        <v>1.05</v>
+      </c>
+      <c r="DG5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:111">
+      <c r="A6" s="1">
+        <v>281</v>
+      </c>
+      <c r="B6">
+        <v>281</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>154001</v>
+      </c>
+      <c r="G6">
+        <v>16355</v>
+      </c>
+      <c r="H6">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>30000</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>110</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6">
+        <v>16849.9</v>
+      </c>
+      <c r="S6">
+        <v>16258.5</v>
+      </c>
+      <c r="T6">
+        <v>30</v>
+      </c>
+      <c r="U6">
+        <v>30</v>
+      </c>
+      <c r="V6" s="2">
+        <v>36068</v>
+      </c>
+      <c r="W6" s="2">
+        <v>47025</v>
+      </c>
+      <c r="X6">
+        <v>2199.5</v>
+      </c>
+      <c r="Y6">
+        <v>929.6</v>
+      </c>
+      <c r="Z6">
+        <v>787.84</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG6">
+        <v>3.5</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>164.4</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>189</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>517.4</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>315</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH6">
+        <v>30000</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="2">
+        <v>23116</v>
+      </c>
+      <c r="CK6" s="2">
+        <v>24621</v>
+      </c>
+      <c r="CL6">
+        <v>33</v>
+      </c>
+      <c r="CM6">
+        <v>999</v>
+      </c>
+      <c r="CN6" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO6" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP6">
+        <v>409</v>
+      </c>
+      <c r="CQ6">
+        <v>244</v>
+      </c>
+      <c r="CR6">
+        <v>116</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV6">
+        <v>16442.9</v>
+      </c>
+      <c r="CW6">
+        <v>4</v>
+      </c>
+      <c r="CX6">
+        <v>2</v>
+      </c>
+      <c r="CY6">
+        <v>0.11</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0.00425</v>
+      </c>
+      <c r="DD6">
+        <v>1.05</v>
+      </c>
+      <c r="DG6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:111">
+      <c r="A7" s="1">
+        <v>320</v>
+      </c>
+      <c r="B7">
+        <v>320</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>177601</v>
+      </c>
+      <c r="G7">
+        <v>16100.1</v>
+      </c>
+      <c r="H7">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>30000</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>3.5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>112</v>
+      </c>
+      <c r="R7">
+        <v>16598</v>
+      </c>
+      <c r="S7">
+        <v>16002.3</v>
+      </c>
+      <c r="T7">
+        <v>30</v>
+      </c>
+      <c r="U7">
+        <v>30</v>
+      </c>
+      <c r="V7" s="2">
+        <v>36100</v>
+      </c>
+      <c r="W7" s="2">
+        <v>47057</v>
+      </c>
+      <c r="X7">
+        <v>1981</v>
+      </c>
+      <c r="Y7">
+        <v>907.4</v>
+      </c>
+      <c r="Z7">
+        <v>769.0700000000001</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG7">
+        <v>3.5</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>142.8</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>189</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>344.9</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>315</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH7">
+        <v>30000</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2">
+        <v>24105</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>26209</v>
+      </c>
+      <c r="CL7">
+        <v>30</v>
+      </c>
+      <c r="CM7">
+        <v>999</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO7" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP7">
+        <v>409</v>
+      </c>
+      <c r="CQ7">
+        <v>242</v>
+      </c>
+      <c r="CR7">
+        <v>118</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV7">
+        <v>16181.2</v>
+      </c>
+      <c r="CW7">
+        <v>6</v>
+      </c>
+      <c r="CX7">
+        <v>3</v>
+      </c>
+      <c r="CY7">
+        <v>0.11</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0.00425</v>
+      </c>
+      <c r="DD7">
+        <v>1.05</v>
+      </c>
+      <c r="DG7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:111">
+      <c r="A8" s="1">
+        <v>321</v>
+      </c>
+      <c r="B8">
+        <v>321</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>177402</v>
+      </c>
+      <c r="G8">
+        <v>16125.7</v>
+      </c>
+      <c r="H8">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>30000</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3.5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8">
+        <v>16637.5</v>
+      </c>
+      <c r="S8">
+        <v>16030.9</v>
+      </c>
+      <c r="T8">
+        <v>30</v>
+      </c>
+      <c r="U8">
+        <v>30</v>
+      </c>
+      <c r="V8" s="2">
+        <v>36130</v>
+      </c>
+      <c r="W8" s="2">
+        <v>47087</v>
+      </c>
+      <c r="X8">
+        <v>2435.1</v>
+      </c>
+      <c r="Y8">
+        <v>961.2</v>
+      </c>
+      <c r="Z8">
+        <v>814.7</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>561.5</v>
+      </c>
+      <c r="AC8">
+        <v>353.9</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG8">
+        <v>3.5</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>192.9</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>189</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>87.3</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>689.7</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>315</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH8">
+        <v>30000</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2">
+        <v>23107</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>22781</v>
+      </c>
+      <c r="CL8">
+        <v>37</v>
+      </c>
+      <c r="CM8">
+        <v>999</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO8" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP8">
+        <v>409</v>
+      </c>
+      <c r="CQ8">
+        <v>241</v>
+      </c>
+      <c r="CR8">
+        <v>119</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV8">
+        <v>16208.8</v>
+      </c>
+      <c r="CW8">
+        <v>1</v>
+      </c>
+      <c r="CX8">
+        <v>1</v>
+      </c>
+      <c r="CY8">
+        <v>0.11</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0.00425</v>
+      </c>
+      <c r="DD8">
+        <v>1.05</v>
+      </c>
+      <c r="DG8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:111">
+      <c r="A9" s="1">
+        <v>364</v>
+      </c>
+      <c r="B9">
+        <v>364</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>202802</v>
+      </c>
+      <c r="G9">
+        <v>7884.2</v>
+      </c>
+      <c r="H9">
+        <v>34.4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>25000</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9">
+        <v>8389.5</v>
+      </c>
+      <c r="S9">
+        <v>7835</v>
+      </c>
+      <c r="T9">
+        <v>40</v>
+      </c>
+      <c r="U9">
+        <v>40</v>
+      </c>
+      <c r="V9" s="2">
+        <v>36192</v>
+      </c>
+      <c r="W9" s="2">
+        <v>50801</v>
+      </c>
+      <c r="X9">
+        <v>1118.5</v>
+      </c>
+      <c r="Y9">
+        <v>535.1</v>
+      </c>
+      <c r="Z9">
+        <v>453.6</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>285.7</v>
+      </c>
+      <c r="AC9">
+        <v>224</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG9">
+        <v>3.5</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>107.5</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>157.5</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>55.9</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>262.5</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH9">
+        <v>25000</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2">
+        <v>28389</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>28568</v>
+      </c>
+      <c r="CL9">
+        <v>21</v>
+      </c>
+      <c r="CM9">
+        <v>999</v>
+      </c>
+      <c r="CN9" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO9" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP9">
+        <v>409</v>
+      </c>
+      <c r="CQ9">
+        <v>239</v>
+      </c>
+      <c r="CR9">
+        <v>241</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV9">
+        <v>7918.599999999999</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0.11</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0.00425</v>
+      </c>
+      <c r="DD9">
+        <v>1.05</v>
+      </c>
+      <c r="DG9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:111">
+      <c r="A10" s="1">
+        <v>399</v>
+      </c>
+      <c r="B10">
+        <v>399</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>214802</v>
+      </c>
+      <c r="G10">
+        <v>13422.1</v>
+      </c>
+      <c r="H10">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>25000</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3.5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10">
+        <v>13846.5</v>
+      </c>
+      <c r="S10">
+        <v>13342.5</v>
+      </c>
+      <c r="T10">
+        <v>30</v>
+      </c>
+      <c r="U10">
+        <v>30</v>
+      </c>
+      <c r="V10" s="2">
+        <v>36144</v>
+      </c>
+      <c r="W10" s="2">
+        <v>47101</v>
+      </c>
+      <c r="X10">
+        <v>1866.4</v>
+      </c>
+      <c r="Y10">
+        <v>791.4</v>
+      </c>
+      <c r="Z10">
+        <v>670.62</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG10">
+        <v>3.5</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>152.1</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>157.5</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>71.8</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>431.1</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>262.5</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH10">
+        <v>25000</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="2">
+        <v>22698</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>24597</v>
+      </c>
+      <c r="CL10">
+        <v>35</v>
+      </c>
+      <c r="CM10">
+        <v>999</v>
+      </c>
+      <c r="CN10" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO10" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP10">
+        <v>409</v>
+      </c>
+      <c r="CQ10">
+        <v>241</v>
+      </c>
+      <c r="CR10">
+        <v>119</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV10">
+        <v>13490.7</v>
+      </c>
+      <c r="CW10">
+        <v>5</v>
+      </c>
+      <c r="CX10">
+        <v>3</v>
+      </c>
+      <c r="CY10">
+        <v>0.11</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0.00425</v>
+      </c>
+      <c r="DD10">
+        <v>1.05</v>
+      </c>
+      <c r="DG10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:111">
+      <c r="A11" s="1">
+        <v>463</v>
+      </c>
+      <c r="B11">
+        <v>463</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>241801</v>
+      </c>
+      <c r="G11">
+        <v>9205.700000000001</v>
+      </c>
+      <c r="H11">
+        <v>224.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>25000</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2.5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="P11">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11">
+        <v>9840.9</v>
+      </c>
+      <c r="S11">
+        <v>9154</v>
+      </c>
+      <c r="T11">
+        <v>40</v>
+      </c>
+      <c r="U11">
+        <v>40</v>
+      </c>
+      <c r="V11" s="2">
+        <v>36220</v>
+      </c>
+      <c r="W11" s="2">
+        <v>50829</v>
+      </c>
+      <c r="X11">
+        <v>1469.7</v>
+      </c>
+      <c r="Y11">
+        <v>653.5</v>
+      </c>
+      <c r="Z11">
+        <v>553.9</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>361.9</v>
+      </c>
+      <c r="AC11">
+        <v>260.5</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG11">
+        <v>2.5</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>150.2</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>157.5</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>73.5</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>172.5</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>262.5</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH11">
+        <v>25000</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="2">
+        <v>26957</v>
+      </c>
+      <c r="CK11" s="2">
+        <v>25385</v>
+      </c>
+      <c r="CL11">
+        <v>28</v>
+      </c>
+      <c r="CM11">
+        <v>999</v>
+      </c>
+      <c r="CN11" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO11" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP11">
+        <v>409</v>
+      </c>
+      <c r="CQ11">
+        <v>238</v>
+      </c>
+      <c r="CR11">
+        <v>242</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>135</v>
+      </c>
+      <c r="CV11">
+        <v>9429.900000000001</v>
+      </c>
+      <c r="CW11">
+        <v>5</v>
+      </c>
+      <c r="CX11">
+        <v>3</v>
+      </c>
+      <c r="CY11">
+        <v>0.11</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0.00425</v>
+      </c>
+      <c r="DD11">
+        <v>1.05</v>
+      </c>
+      <c r="DG11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:111">
+      <c r="A12" s="1">
+        <v>472</v>
+      </c>
+      <c r="B12">
+        <v>472</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>244801</v>
+      </c>
+      <c r="G12">
+        <v>19759.6</v>
+      </c>
+      <c r="H12">
+        <v>509.9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>20000</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2.5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R12">
+        <v>19772.4</v>
+      </c>
+      <c r="S12">
+        <v>19639.4</v>
+      </c>
+      <c r="T12">
+        <v>20</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12" s="2">
+        <v>36220</v>
+      </c>
+      <c r="W12" s="2">
+        <v>43524</v>
+      </c>
+      <c r="X12">
+        <v>1415.1</v>
+      </c>
+      <c r="Y12">
+        <v>1135.9</v>
+      </c>
+      <c r="Z12">
+        <v>962.8</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>763.9</v>
+      </c>
+      <c r="AC12">
+        <v>317.9</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG12">
+        <v>2.5</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>68.7</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>63</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>42.5</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>105</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH12">
+        <v>20000</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="2">
+        <v>21627</v>
+      </c>
+      <c r="CK12" s="2">
+        <v>18838</v>
+      </c>
+      <c r="CL12">
+        <v>45</v>
+      </c>
+      <c r="CM12">
+        <v>999</v>
+      </c>
+      <c r="CN12" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO12" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP12">
+        <v>409</v>
+      </c>
+      <c r="CQ12">
+        <v>238</v>
+      </c>
+      <c r="CR12">
+        <v>2</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>135</v>
+      </c>
+      <c r="CV12">
+        <v>20269.5</v>
+      </c>
+      <c r="CW12">
+        <v>8</v>
+      </c>
+      <c r="CX12">
+        <v>5</v>
+      </c>
+      <c r="CY12">
+        <v>0.11</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0.00425</v>
+      </c>
+      <c r="DD12">
+        <v>1.05</v>
+      </c>
+      <c r="DG12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:111">
+      <c r="A13" s="1">
+        <v>1777</v>
+      </c>
+      <c r="B13">
+        <v>1777</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1019201</v>
+      </c>
+      <c r="G13">
+        <v>24784.5</v>
+      </c>
+      <c r="H13">
+        <v>813.4</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>67470</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13">
+        <v>26975.1</v>
+      </c>
+      <c r="S13">
+        <v>24597.9</v>
+      </c>
+      <c r="T13">
+        <v>30</v>
+      </c>
+      <c r="U13">
+        <v>30</v>
+      </c>
+      <c r="V13" s="2">
+        <v>38383</v>
+      </c>
+      <c r="W13" s="2">
+        <v>49339</v>
+      </c>
+      <c r="X13">
+        <v>3599.6</v>
+      </c>
+      <c r="Y13">
+        <v>2552.9</v>
+      </c>
+      <c r="Z13">
+        <v>2163.9</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>1630.5</v>
+      </c>
+      <c r="AC13">
+        <v>800.8</v>
+      </c>
+      <c r="AD13">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG13">
+        <v>2</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>441.6</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>425.1</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>180</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH13">
+        <v>67470</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="2">
+        <v>26167</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>24920</v>
+      </c>
+      <c r="CL13">
+        <v>35</v>
+      </c>
+      <c r="CM13">
+        <v>999</v>
+      </c>
+      <c r="CN13" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO13" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP13">
+        <v>409</v>
+      </c>
+      <c r="CQ13">
+        <v>168</v>
+      </c>
+      <c r="CR13">
+        <v>192</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>136</v>
+      </c>
+      <c r="CV13">
+        <v>25597.9</v>
+      </c>
+      <c r="CW13">
+        <v>4</v>
+      </c>
+      <c r="CX13">
+        <v>2</v>
+      </c>
+      <c r="CY13">
+        <v>0.11</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0.00425</v>
+      </c>
+      <c r="DD13">
+        <v>1.05</v>
+      </c>
+      <c r="DG13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:111">
+      <c r="A14" s="1">
+        <v>3406</v>
+      </c>
+      <c r="B14">
+        <v>3406</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>2135101</v>
+      </c>
+      <c r="G14">
+        <v>5265.4</v>
+      </c>
+      <c r="H14">
+        <v>195.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>30000</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14">
+        <v>6422.9</v>
+      </c>
+      <c r="S14">
+        <v>5132.7</v>
+      </c>
+      <c r="T14">
+        <v>19</v>
+      </c>
+      <c r="U14">
+        <v>19</v>
+      </c>
+      <c r="V14" s="2">
+        <v>41913</v>
+      </c>
+      <c r="W14" s="2">
+        <v>48852</v>
+      </c>
+      <c r="X14">
+        <v>2275.9</v>
+      </c>
+      <c r="Y14">
+        <v>2076.6</v>
+      </c>
+      <c r="Z14">
+        <v>1749</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1501.6</v>
+      </c>
+      <c r="AC14">
+        <v>379.1</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG14">
+        <v>0.5</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>151.2</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>101.9</v>
+      </c>
+      <c r="CD14">
+        <v>48.1</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH14">
+        <v>30000</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="2">
+        <v>26953</v>
+      </c>
+      <c r="CK14" s="2">
+        <v>25172</v>
+      </c>
+      <c r="CL14">
+        <v>44</v>
+      </c>
+      <c r="CM14">
+        <v>999</v>
+      </c>
+      <c r="CN14" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO14" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP14">
+        <v>409</v>
+      </c>
+      <c r="CQ14">
+        <v>51</v>
+      </c>
+      <c r="CR14">
+        <v>177</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV14">
+        <v>5460.9</v>
+      </c>
+      <c r="CW14">
+        <v>5</v>
+      </c>
+      <c r="CX14">
+        <v>3</v>
+      </c>
+      <c r="CY14">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0.0039</v>
+      </c>
+      <c r="DD14">
+        <v>1.05</v>
+      </c>
+      <c r="DG14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:111">
+      <c r="A15" s="1">
+        <v>3435</v>
+      </c>
+      <c r="B15">
+        <v>3435</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1119602</v>
+      </c>
+      <c r="G15">
+        <v>3844.9</v>
+      </c>
+      <c r="H15">
+        <v>132</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>20000</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0.5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15">
+        <v>4602</v>
+      </c>
+      <c r="S15">
+        <v>3745.6</v>
+      </c>
+      <c r="T15">
+        <v>17</v>
+      </c>
+      <c r="U15">
+        <v>17</v>
+      </c>
+      <c r="V15" s="2">
+        <v>41974</v>
+      </c>
+      <c r="W15" s="2">
+        <v>48182</v>
+      </c>
+      <c r="X15">
+        <v>1539.7</v>
+      </c>
+      <c r="Y15">
+        <v>1438.9</v>
+      </c>
+      <c r="Z15">
+        <v>1274.5</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1124.5</v>
+      </c>
+      <c r="AC15">
+        <v>245.9</v>
+      </c>
+      <c r="AD15">
+        <v>2</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG15">
+        <v>0.5</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>100.8</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH15">
+        <v>20000</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="2">
+        <v>26106</v>
+      </c>
+      <c r="CK15" s="2">
+        <v>26379</v>
+      </c>
+      <c r="CL15">
+        <v>43</v>
+      </c>
+      <c r="CM15">
+        <v>999</v>
+      </c>
+      <c r="CN15" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO15" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP15">
+        <v>409</v>
+      </c>
+      <c r="CQ15">
+        <v>49</v>
+      </c>
+      <c r="CR15">
+        <v>155</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV15">
+        <v>3976.9</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DC15">
+        <v>0.0039</v>
+      </c>
+      <c r="DD15">
+        <v>1.05</v>
+      </c>
+      <c r="DG15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:111">
+      <c r="A16" s="1">
+        <v>3459</v>
+      </c>
+      <c r="B16">
+        <v>3459</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>2142901</v>
+      </c>
+      <c r="G16">
+        <v>2286.3</v>
+      </c>
+      <c r="H16">
+        <v>95.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>30000</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>111</v>
+      </c>
+      <c r="O16">
+        <v>12</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>115</v>
+      </c>
+      <c r="R16">
+        <v>3501.9</v>
+      </c>
+      <c r="S16">
+        <v>2286.3</v>
+      </c>
+      <c r="T16">
+        <v>33</v>
+      </c>
+      <c r="U16">
+        <v>33</v>
+      </c>
+      <c r="V16" s="2">
+        <v>41974</v>
+      </c>
+      <c r="W16" s="2">
+        <v>54026</v>
+      </c>
+      <c r="X16">
+        <v>1322.7</v>
+      </c>
+      <c r="Y16">
+        <v>1171.5</v>
+      </c>
+      <c r="Z16">
+        <v>1037.6</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>834.3</v>
+      </c>
+      <c r="AC16">
+        <v>281.4</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG16">
+        <v>0.5</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>151.2</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH16">
+        <v>30000</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="2">
+        <v>30020</v>
+      </c>
+      <c r="CK16" s="2">
+        <v>30408</v>
+      </c>
+      <c r="CL16">
+        <v>33</v>
+      </c>
+      <c r="CM16">
+        <v>999</v>
+      </c>
+      <c r="CN16" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO16" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP16">
+        <v>409</v>
+      </c>
+      <c r="CQ16">
+        <v>49</v>
+      </c>
+      <c r="CR16">
+        <v>347</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV16">
+        <v>2381.8</v>
+      </c>
+      <c r="CW16">
+        <v>1</v>
+      </c>
+      <c r="CX16">
+        <v>1</v>
+      </c>
+      <c r="CY16">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0.0039</v>
+      </c>
+      <c r="DD16">
+        <v>1.05</v>
+      </c>
+      <c r="DG16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:111">
+      <c r="A17" s="1">
+        <v>3462</v>
+      </c>
+      <c r="B17">
+        <v>3462</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>2143401</v>
+      </c>
+      <c r="G17">
+        <v>7300.8</v>
+      </c>
+      <c r="H17">
+        <v>245</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>25000</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17">
+        <v>12</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>115</v>
+      </c>
+      <c r="R17">
+        <v>8134.2</v>
+      </c>
+      <c r="S17">
+        <v>7123.9</v>
+      </c>
+      <c r="T17">
+        <v>12</v>
+      </c>
+      <c r="U17">
+        <v>12</v>
+      </c>
+      <c r="V17" s="2">
+        <v>41974</v>
+      </c>
+      <c r="W17" s="2">
+        <v>46356</v>
+      </c>
+      <c r="X17">
+        <v>2875.6</v>
+      </c>
+      <c r="Y17">
+        <v>2749.6</v>
+      </c>
+      <c r="Z17">
+        <v>2254.9</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2016.6</v>
+      </c>
+      <c r="AC17">
+        <v>602.1</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG17">
+        <v>0.5</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>126</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH17">
+        <v>25000</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="2">
+        <v>24797</v>
+      </c>
+      <c r="CK17" s="2">
+        <v>22629</v>
+      </c>
+      <c r="CL17">
+        <v>50</v>
+      </c>
+      <c r="CM17">
+        <v>999</v>
+      </c>
+      <c r="CN17" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO17" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP17">
+        <v>409</v>
+      </c>
+      <c r="CQ17">
+        <v>49</v>
+      </c>
+      <c r="CR17">
+        <v>95</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV17">
+        <v>7545.8</v>
+      </c>
+      <c r="CW17">
+        <v>6</v>
+      </c>
+      <c r="CX17">
+        <v>3</v>
+      </c>
+      <c r="CY17">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DC17">
+        <v>0.0039</v>
+      </c>
+      <c r="DD17">
+        <v>1.05</v>
+      </c>
+      <c r="DG17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:111">
+      <c r="A18" s="1">
+        <v>3498</v>
+      </c>
+      <c r="B18">
+        <v>3498</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>2149402</v>
+      </c>
+      <c r="G18">
+        <v>5526.7</v>
+      </c>
+      <c r="H18">
+        <v>176.1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>30000</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>111</v>
+      </c>
+      <c r="O18">
+        <v>12</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18">
+        <v>6674.8</v>
+      </c>
+      <c r="S18">
+        <v>5380.8</v>
+      </c>
+      <c r="T18">
+        <v>17</v>
+      </c>
+      <c r="U18">
+        <v>17</v>
+      </c>
+      <c r="V18" s="2">
+        <v>42005</v>
+      </c>
+      <c r="W18" s="2">
+        <v>48213</v>
+      </c>
+      <c r="X18">
+        <v>2704.2</v>
+      </c>
+      <c r="Y18">
+        <v>2553</v>
+      </c>
+      <c r="Z18">
+        <v>2037.1</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>1686.7</v>
+      </c>
+      <c r="AC18">
+        <v>744.7</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG18">
+        <v>0.5</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>151.2</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>132</v>
+      </c>
+      <c r="CH18">
+        <v>30000</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="2">
+        <v>24139</v>
+      </c>
+      <c r="CK18" s="2">
+        <v>24442</v>
+      </c>
+      <c r="CL18">
+        <v>49</v>
+      </c>
+      <c r="CM18">
+        <v>999</v>
+      </c>
+      <c r="CN18" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO18" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP18">
+        <v>409</v>
+      </c>
+      <c r="CQ18">
+        <v>48</v>
+      </c>
+      <c r="CR18">
+        <v>156</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV18">
+        <v>5702.8</v>
+      </c>
+      <c r="CW18">
+        <v>1</v>
+      </c>
+      <c r="CX18">
+        <v>1</v>
+      </c>
+      <c r="CY18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>0.0039</v>
+      </c>
+      <c r="DD18">
+        <v>1.05</v>
+      </c>
+      <c r="DG18">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/zJO/check portefeuille.xlsx
+++ b/zJO/check portefeuille.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="139">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -355,9 +355,30 @@
     <t>tauxZill</t>
   </si>
   <si>
+    <t>GKM1995</t>
+  </si>
+  <si>
+    <t>GKF1995</t>
+  </si>
+  <si>
     <t>EKM1995</t>
   </si>
   <si>
+    <t>EKF1995</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -367,13 +388,43 @@
     <t>M</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>0301</t>
+  </si>
+  <si>
     <t xml:space="preserve">    </t>
   </si>
   <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A  </t>
+  </si>
+  <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B  </t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>0306</t>
   </si>
   <si>
     <t xml:space="preserve">CHF </t>
@@ -743,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DJ3"/>
+  <dimension ref="A1:DJ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1092,25 +1143,25 @@
     </row>
     <row r="2" spans="1:114">
       <c r="A2" s="1">
-        <v>3632</v>
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>3632</v>
+        <v>91</v>
       </c>
       <c r="C2">
         <v>2018</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>413106</v>
+        <v>52001</v>
       </c>
       <c r="G2">
-        <v>11370.2</v>
+        <v>432.4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1122,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="N2" t="s">
         <v>113</v>
@@ -1137,37 +1188,37 @@
         <v>1</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R2">
-        <v>11370.2</v>
+        <v>432.4</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="U2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="V2" s="2">
-        <v>42156</v>
+        <v>35431</v>
       </c>
       <c r="W2" s="2">
-        <v>43616</v>
+        <v>44561</v>
       </c>
       <c r="X2">
-        <v>151.5</v>
+        <v>112</v>
       </c>
       <c r="Y2">
-        <v>151.5</v>
+        <v>112</v>
       </c>
       <c r="Z2">
-        <v>138.6</v>
+        <v>99.7</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1176,31 +1227,31 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>138.6</v>
+        <v>112</v>
       </c>
       <c r="AD2">
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AF2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AG2">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="AH2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AI2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AJ2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AK2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -1212,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AP2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AQ2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AR2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -1233,16 +1284,16 @@
         <v>0</v>
       </c>
       <c r="AV2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AW2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AX2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AY2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1251,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="BB2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="BC2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BD2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BE2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -1272,16 +1323,16 @@
         <v>0</v>
       </c>
       <c r="BI2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="BJ2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BK2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BL2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BM2">
         <v>0</v>
@@ -1293,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="BQ2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BR2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BS2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1314,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="BX2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BY2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BZ2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1344,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="CH2">
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CJ2" s="2">
-        <v>22336</v>
+        <v>20332</v>
       </c>
       <c r="CK2" s="2">
-        <v>42156</v>
+        <v>35431</v>
       </c>
       <c r="CL2">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="CM2">
         <v>999</v>
@@ -1374,22 +1425,22 @@
         <v>409</v>
       </c>
       <c r="CQ2">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="CR2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="CS2">
         <v>0</v>
       </c>
       <c r="CT2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="CU2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="CW2">
-        <v>11370.2</v>
+        <v>432.4</v>
       </c>
       <c r="CX2">
         <v>0</v>
@@ -1421,25 +1472,25 @@
     </row>
     <row r="3" spans="1:114">
       <c r="A3" s="1">
-        <v>7999</v>
+        <v>585</v>
       </c>
       <c r="B3">
-        <v>7999</v>
+        <v>585</v>
       </c>
       <c r="C3">
         <v>2018</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>2333603</v>
+        <v>111402</v>
       </c>
       <c r="G3">
-        <v>67.8</v>
+        <v>96.3</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1451,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>55000</v>
+        <v>80000</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N3" t="s">
         <v>113</v>
@@ -1466,37 +1517,37 @@
         <v>12</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R3">
-        <v>67.8</v>
+        <v>96.3</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="V3" s="2">
-        <v>43374</v>
+        <v>36313</v>
       </c>
       <c r="W3" s="2">
-        <v>45930</v>
+        <v>43617</v>
       </c>
       <c r="X3">
-        <v>397.1</v>
+        <v>684.5</v>
       </c>
       <c r="Y3">
-        <v>397.1</v>
+        <v>391.3</v>
       </c>
       <c r="Z3">
-        <v>346</v>
+        <v>331.7</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -1505,31 +1556,31 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>346</v>
+        <v>372.7</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AF3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AI3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AJ3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AK3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -1541,16 +1592,16 @@
         <v>0</v>
       </c>
       <c r="AO3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AP3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AQ3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AR3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -1562,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="AV3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AW3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AX3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AY3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1580,16 +1631,16 @@
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="BC3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BD3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BE3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BF3">
         <v>0</v>
@@ -1601,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="BI3" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="BJ3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="BK3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="BL3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -1619,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>293.2</v>
       </c>
       <c r="BP3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="BQ3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BR3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BS3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -1643,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="BW3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="BX3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BY3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BZ3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1673,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -1682,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="CJ3" s="2">
-        <v>24552</v>
+        <v>25816</v>
       </c>
       <c r="CK3" s="2">
-        <v>43374</v>
+        <v>26174</v>
       </c>
       <c r="CL3">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="CM3">
         <v>999</v>
@@ -1703,28 +1754,28 @@
         <v>409</v>
       </c>
       <c r="CQ3">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="CR3">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="CS3">
         <v>0</v>
       </c>
       <c r="CT3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="CU3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="CW3">
-        <v>67.8</v>
+        <v>96.3</v>
       </c>
       <c r="CX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ3">
         <v>0</v>
@@ -1736,15 +1787,5279 @@
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="DF3">
-        <v>0.0008</v>
+        <v>0.0011</v>
       </c>
       <c r="DG3">
         <v>1</v>
       </c>
       <c r="DJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:114">
+      <c r="A4" s="1">
+        <v>741</v>
+      </c>
+      <c r="B4">
+        <v>741</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>408901</v>
+      </c>
+      <c r="G4">
+        <v>126.8</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>200000</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4">
+        <v>126.8</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4" s="2">
+        <v>36465</v>
+      </c>
+      <c r="W4" s="2">
+        <v>43769</v>
+      </c>
+      <c r="X4">
+        <v>440.6</v>
+      </c>
+      <c r="Y4">
+        <v>440.6</v>
+      </c>
+      <c r="Z4">
+        <v>373.42</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>373.44</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG4">
+        <v>2.5</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>25122</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>36465</v>
+      </c>
+      <c r="CL4">
+        <v>31</v>
+      </c>
+      <c r="CM4">
+        <v>999</v>
+      </c>
+      <c r="CN4" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO4" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP4">
+        <v>409</v>
+      </c>
+      <c r="CQ4">
+        <v>230</v>
+      </c>
+      <c r="CR4">
+        <v>10</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW4">
+        <v>126.8</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0.0008</v>
+      </c>
+      <c r="DG4">
+        <v>1</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:114">
+      <c r="A5" s="1">
+        <v>1228</v>
+      </c>
+      <c r="B5">
+        <v>1228</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>787001</v>
+      </c>
+      <c r="G5">
+        <v>635.1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>100000</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>118</v>
+      </c>
+      <c r="R5">
+        <v>635.1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5" s="2">
+        <v>36982</v>
+      </c>
+      <c r="W5" s="2">
+        <v>44286</v>
+      </c>
+      <c r="X5">
+        <v>549.3</v>
+      </c>
+      <c r="Y5">
+        <v>521.8</v>
+      </c>
+      <c r="Z5">
+        <v>442.3</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>496.9</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG5">
+        <v>2.5</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>27.5</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>27084</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>26007</v>
+      </c>
+      <c r="CL5">
+        <v>29</v>
+      </c>
+      <c r="CM5">
+        <v>999</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP5">
+        <v>409</v>
+      </c>
+      <c r="CQ5">
+        <v>213</v>
+      </c>
+      <c r="CR5">
+        <v>27</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW5">
+        <v>635.1</v>
+      </c>
+      <c r="CX5">
+        <v>3</v>
+      </c>
+      <c r="CY5">
+        <v>2</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0.0011</v>
+      </c>
+      <c r="DF5">
+        <v>0.0011</v>
+      </c>
+      <c r="DG5">
+        <v>1</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:114">
+      <c r="A6" s="1">
+        <v>1254</v>
+      </c>
+      <c r="B6">
+        <v>1254</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>554502</v>
+      </c>
+      <c r="G6">
+        <v>6464.8</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>165000</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6">
+        <v>6464.8</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>25</v>
+      </c>
+      <c r="V6" s="2">
+        <v>37073</v>
+      </c>
+      <c r="W6" s="2">
+        <v>46203</v>
+      </c>
+      <c r="X6">
+        <v>1162.3</v>
+      </c>
+      <c r="Y6">
+        <v>1162.3</v>
+      </c>
+      <c r="Z6">
+        <v>985.2</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1107</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG6">
+        <v>2.5</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="2">
+        <v>22917</v>
+      </c>
+      <c r="CK6" s="2">
+        <v>37073</v>
+      </c>
+      <c r="CL6">
+        <v>39</v>
+      </c>
+      <c r="CM6">
+        <v>999</v>
+      </c>
+      <c r="CN6" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO6" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP6">
+        <v>409</v>
+      </c>
+      <c r="CQ6">
+        <v>210</v>
+      </c>
+      <c r="CR6">
+        <v>90</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW6">
+        <v>6464.8</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0.0008</v>
+      </c>
+      <c r="DG6">
+        <v>1</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:114">
+      <c r="A7" s="1">
+        <v>1258</v>
+      </c>
+      <c r="B7">
+        <v>1258</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>618602</v>
+      </c>
+      <c r="G7">
+        <v>1848.7</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>165000</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <v>17</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R7">
+        <v>1848.7</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>25</v>
+      </c>
+      <c r="U7">
+        <v>25</v>
+      </c>
+      <c r="V7" s="2">
+        <v>37073</v>
+      </c>
+      <c r="W7" s="2">
+        <v>46203</v>
+      </c>
+      <c r="X7">
+        <v>729.9</v>
+      </c>
+      <c r="Y7">
+        <v>729.9</v>
+      </c>
+      <c r="Z7">
+        <v>412.5</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>695.2</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG7">
+        <v>2.5</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="2">
+        <v>24059</v>
+      </c>
+      <c r="CK7" s="2">
+        <v>37073</v>
+      </c>
+      <c r="CL7">
+        <v>36</v>
+      </c>
+      <c r="CM7">
+        <v>999</v>
+      </c>
+      <c r="CN7" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO7" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP7">
+        <v>409</v>
+      </c>
+      <c r="CQ7">
+        <v>210</v>
+      </c>
+      <c r="CR7">
+        <v>90</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW7">
+        <v>1848.7</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0.0008</v>
+      </c>
+      <c r="DG7">
+        <v>1</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:114">
+      <c r="A8" s="1">
+        <v>1392</v>
+      </c>
+      <c r="B8">
+        <v>1392</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>152402</v>
+      </c>
+      <c r="G8">
+        <v>465.3</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>30000</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R8">
+        <v>465.3</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>30</v>
+      </c>
+      <c r="U8">
+        <v>30</v>
+      </c>
+      <c r="V8" s="2">
+        <v>37319</v>
+      </c>
+      <c r="W8" s="2">
+        <v>48276</v>
+      </c>
+      <c r="X8">
+        <v>799.7</v>
+      </c>
+      <c r="Y8">
+        <v>92.5</v>
+      </c>
+      <c r="Z8">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG8">
+        <v>2.5</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>94.5</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>24</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>431.2</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>157.5</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="2">
+        <v>25205</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>37319</v>
+      </c>
+      <c r="CL8">
+        <v>33</v>
+      </c>
+      <c r="CM8">
+        <v>999</v>
+      </c>
+      <c r="CN8" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO8" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP8">
+        <v>409</v>
+      </c>
+      <c r="CQ8">
+        <v>202</v>
+      </c>
+      <c r="CR8">
+        <v>158</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW8">
+        <v>465.3</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>0</v>
+      </c>
+      <c r="DA8">
+        <v>0</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0.0008</v>
+      </c>
+      <c r="DG8">
+        <v>1</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:114">
+      <c r="A9" s="1">
+        <v>1393</v>
+      </c>
+      <c r="B9">
+        <v>1393</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>171803</v>
+      </c>
+      <c r="G9">
+        <v>2011.8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>40000</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2.5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9">
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>118</v>
+      </c>
+      <c r="R9">
+        <v>2011.8</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>30</v>
+      </c>
+      <c r="U9">
+        <v>30</v>
+      </c>
+      <c r="V9" s="2">
+        <v>37323</v>
+      </c>
+      <c r="W9" s="2">
+        <v>48280</v>
+      </c>
+      <c r="X9">
+        <v>614.3</v>
+      </c>
+      <c r="Y9">
+        <v>259.9</v>
+      </c>
+      <c r="Z9">
+        <v>220.3</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>247.5</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG9">
+        <v>2.5</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>18.4</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>210</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="2">
+        <v>24406</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>37323</v>
+      </c>
+      <c r="CL9">
+        <v>35</v>
+      </c>
+      <c r="CM9">
+        <v>999</v>
+      </c>
+      <c r="CN9" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO9" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP9">
+        <v>409</v>
+      </c>
+      <c r="CQ9">
+        <v>202</v>
+      </c>
+      <c r="CR9">
+        <v>158</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW9">
+        <v>2011.8</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0.0008</v>
+      </c>
+      <c r="DG9">
+        <v>1</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:114">
+      <c r="A10" s="1">
+        <v>1506</v>
+      </c>
+      <c r="B10">
+        <v>1506</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>409302</v>
+      </c>
+      <c r="G10">
+        <v>2818.2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>200000</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>119</v>
+      </c>
+      <c r="R10">
+        <v>2818.2</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10" s="2">
+        <v>37987</v>
+      </c>
+      <c r="W10" s="2">
+        <v>45291</v>
+      </c>
+      <c r="X10">
+        <v>1017.6</v>
+      </c>
+      <c r="Y10">
+        <v>987.1</v>
+      </c>
+      <c r="Z10">
+        <v>836.7</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>940.1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>30.5</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="2">
+        <v>24373</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>37987</v>
+      </c>
+      <c r="CL10">
+        <v>37</v>
+      </c>
+      <c r="CM10">
+        <v>999</v>
+      </c>
+      <c r="CN10" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO10" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP10">
+        <v>409</v>
+      </c>
+      <c r="CQ10">
+        <v>180</v>
+      </c>
+      <c r="CR10">
+        <v>60</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW10">
+        <v>2818.2</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0.0008</v>
+      </c>
+      <c r="DG10">
+        <v>1</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:114">
+      <c r="A11" s="1">
+        <v>1549</v>
+      </c>
+      <c r="B11">
+        <v>1549</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>312503</v>
+      </c>
+      <c r="G11">
+        <v>523.8</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>60000</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11">
+        <v>12</v>
+      </c>
+      <c r="P11">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>119</v>
+      </c>
+      <c r="R11">
+        <v>523.8</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11" s="2">
+        <v>37987</v>
+      </c>
+      <c r="W11" s="2">
+        <v>45291</v>
+      </c>
+      <c r="X11">
+        <v>754.7</v>
+      </c>
+      <c r="Y11">
+        <v>228.1</v>
+      </c>
+      <c r="Z11">
+        <v>193.3</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>217.2</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>189</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>22.6</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>315</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="2">
+        <v>26054</v>
+      </c>
+      <c r="CK11" s="2">
+        <v>37987</v>
+      </c>
+      <c r="CL11">
+        <v>33</v>
+      </c>
+      <c r="CM11">
+        <v>999</v>
+      </c>
+      <c r="CN11" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO11" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP11">
+        <v>409</v>
+      </c>
+      <c r="CQ11">
+        <v>180</v>
+      </c>
+      <c r="CR11">
+        <v>60</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW11">
+        <v>523.8</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0.0008</v>
+      </c>
+      <c r="DG11">
+        <v>1</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:114">
+      <c r="A12" s="1">
+        <v>2760</v>
+      </c>
+      <c r="B12">
+        <v>2760</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>913502</v>
+      </c>
+      <c r="G12">
+        <v>6881.7</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>250000</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12">
+        <v>6881.7</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>19</v>
+      </c>
+      <c r="U12">
+        <v>19</v>
+      </c>
+      <c r="V12" s="2">
+        <v>40422</v>
+      </c>
+      <c r="W12" s="2">
+        <v>47361</v>
+      </c>
+      <c r="X12">
+        <v>2332.2</v>
+      </c>
+      <c r="Y12">
+        <v>2332.2</v>
+      </c>
+      <c r="Z12">
+        <v>1976.9</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>2221.2</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG12">
+        <v>1.25</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="2">
+        <v>23538</v>
+      </c>
+      <c r="CK12" s="2">
+        <v>40422</v>
+      </c>
+      <c r="CL12">
+        <v>46</v>
+      </c>
+      <c r="CM12">
+        <v>999</v>
+      </c>
+      <c r="CN12" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO12" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP12">
+        <v>409</v>
+      </c>
+      <c r="CQ12">
+        <v>100</v>
+      </c>
+      <c r="CR12">
+        <v>128</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW12">
+        <v>6881.7</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0.0008</v>
+      </c>
+      <c r="DG12">
+        <v>1</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:114">
+      <c r="A13" s="1">
+        <v>3632</v>
+      </c>
+      <c r="B13">
+        <v>3632</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>413106</v>
+      </c>
+      <c r="G13">
+        <v>11370.2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>20000</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.25</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13">
+        <v>11370.2</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13" s="2">
+        <v>42156</v>
+      </c>
+      <c r="W13" s="2">
+        <v>43616</v>
+      </c>
+      <c r="X13">
+        <v>151.5</v>
+      </c>
+      <c r="Y13">
+        <v>151.5</v>
+      </c>
+      <c r="Z13">
+        <v>138.6</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>138.6</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG13">
+        <v>0.25</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>8</v>
+      </c>
+      <c r="CJ13" s="2">
+        <v>22336</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>42156</v>
+      </c>
+      <c r="CL13">
+        <v>54</v>
+      </c>
+      <c r="CM13">
+        <v>999</v>
+      </c>
+      <c r="CN13" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO13" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP13">
+        <v>409</v>
+      </c>
+      <c r="CQ13">
+        <v>43</v>
+      </c>
+      <c r="CR13">
+        <v>5</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW13">
+        <v>11370.2</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DF13">
+        <v>0.0008</v>
+      </c>
+      <c r="DG13">
+        <v>1</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:114">
+      <c r="A14" s="1">
+        <v>3748</v>
+      </c>
+      <c r="B14">
+        <v>3748</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2200601</v>
+      </c>
+      <c r="G14">
+        <v>0.9</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>11.3</v>
+      </c>
+      <c r="J14">
+        <v>32.3</v>
+      </c>
+      <c r="K14">
+        <v>15000</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14">
+        <v>3.7</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14" s="2">
+        <v>42309</v>
+      </c>
+      <c r="W14" s="2">
+        <v>44135</v>
+      </c>
+      <c r="X14">
+        <v>141.3</v>
+      </c>
+      <c r="Y14">
+        <v>34.2</v>
+      </c>
+      <c r="Z14">
+        <v>30.7</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>33.5</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>45.9</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>135</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>129</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>61.2</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="2">
+        <v>28504</v>
+      </c>
+      <c r="CK14" s="2">
+        <v>42309</v>
+      </c>
+      <c r="CL14">
+        <v>38</v>
+      </c>
+      <c r="CM14">
+        <v>999</v>
+      </c>
+      <c r="CN14" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO14" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP14">
+        <v>409</v>
+      </c>
+      <c r="CQ14">
+        <v>38</v>
+      </c>
+      <c r="CR14">
+        <v>22</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW14">
+        <v>44.5</v>
+      </c>
+      <c r="CX14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="CZ14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DB14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DF14">
+        <v>0.0008</v>
+      </c>
+      <c r="DG14">
+        <v>1</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:114">
+      <c r="A15" s="1">
+        <v>3827</v>
+      </c>
+      <c r="B15">
+        <v>3827</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2217501</v>
+      </c>
+      <c r="G15">
+        <v>41.7</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>26.6</v>
+      </c>
+      <c r="J15">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K15">
+        <v>20000</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>122</v>
+      </c>
+      <c r="R15">
+        <v>288.4</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>39</v>
+      </c>
+      <c r="U15">
+        <v>39</v>
+      </c>
+      <c r="V15" s="2">
+        <v>42430</v>
+      </c>
+      <c r="W15" s="2">
+        <v>56673</v>
+      </c>
+      <c r="X15">
+        <v>225.8</v>
+      </c>
+      <c r="Y15">
+        <v>164</v>
+      </c>
+      <c r="Z15">
+        <v>145.6</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>159.2</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>61.8</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="2">
+        <v>30998</v>
+      </c>
+      <c r="CK15" s="2">
+        <v>42430</v>
+      </c>
+      <c r="CL15">
+        <v>31</v>
+      </c>
+      <c r="CM15">
+        <v>999</v>
+      </c>
+      <c r="CN15" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO15" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP15">
+        <v>409</v>
+      </c>
+      <c r="CQ15">
+        <v>34</v>
+      </c>
+      <c r="CR15">
+        <v>434</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW15">
+        <v>77.50000000000001</v>
+      </c>
+      <c r="CX15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="CZ15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DB15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DF15">
+        <v>0.0008</v>
+      </c>
+      <c r="DG15">
+        <v>1</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:114">
+      <c r="A16" s="1">
+        <v>4238</v>
+      </c>
+      <c r="B16">
+        <v>4238</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2266201</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>234.5</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>67000</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>122</v>
+      </c>
+      <c r="R16">
+        <v>277.4</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>38</v>
+      </c>
+      <c r="U16">
+        <v>38</v>
+      </c>
+      <c r="V16" s="2">
+        <v>42705</v>
+      </c>
+      <c r="W16" s="2">
+        <v>56583</v>
+      </c>
+      <c r="X16">
+        <v>257</v>
+      </c>
+      <c r="Y16">
+        <v>257</v>
+      </c>
+      <c r="Z16">
+        <v>235.1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>257</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA16">
+        <v>0</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="2">
+        <v>32594</v>
+      </c>
+      <c r="CK16" s="2">
+        <v>42705</v>
+      </c>
+      <c r="CL16">
+        <v>28</v>
+      </c>
+      <c r="CM16">
+        <v>999</v>
+      </c>
+      <c r="CN16" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO16" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP16">
+        <v>409</v>
+      </c>
+      <c r="CQ16">
+        <v>25</v>
+      </c>
+      <c r="CR16">
+        <v>431</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW16">
+        <v>234.5</v>
+      </c>
+      <c r="CX16">
+        <v>0</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="CZ16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DB16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DF16">
+        <v>0.0008</v>
+      </c>
+      <c r="DG16">
+        <v>1</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:114">
+      <c r="A17" s="1">
+        <v>6552</v>
+      </c>
+      <c r="B17">
+        <v>6552</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2137602</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>141.7</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>100000</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17">
+        <v>384.4</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>21</v>
+      </c>
+      <c r="U17">
+        <v>21</v>
+      </c>
+      <c r="V17" s="2">
+        <v>43160</v>
+      </c>
+      <c r="W17" s="2">
+        <v>50829</v>
+      </c>
+      <c r="X17">
+        <v>874.2</v>
+      </c>
+      <c r="Y17">
+        <v>874.2</v>
+      </c>
+      <c r="Z17">
+        <v>784.3</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>857.1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="2">
+        <v>27118</v>
+      </c>
+      <c r="CK17" s="2">
+        <v>43160</v>
+      </c>
+      <c r="CL17">
+        <v>44</v>
+      </c>
+      <c r="CM17">
+        <v>999</v>
+      </c>
+      <c r="CN17" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO17" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP17">
+        <v>409</v>
+      </c>
+      <c r="CQ17">
+        <v>10</v>
+      </c>
+      <c r="CR17">
+        <v>242</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW17">
+        <v>141.7</v>
+      </c>
+      <c r="CX17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="CZ17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DB17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>0</v>
+      </c>
+      <c r="DF17">
+        <v>0.0008</v>
+      </c>
+      <c r="DG17">
+        <v>1</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:114">
+      <c r="A18" s="1">
+        <v>7109</v>
+      </c>
+      <c r="B18">
+        <v>7109</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>2490201</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>30000</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18">
+        <v>12</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>122</v>
+      </c>
+      <c r="R18">
+        <v>36.5</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>10</v>
+      </c>
+      <c r="U18">
+        <v>10</v>
+      </c>
+      <c r="V18" s="2">
+        <v>43252</v>
+      </c>
+      <c r="W18" s="2">
+        <v>46904</v>
+      </c>
+      <c r="X18">
+        <v>288.8</v>
+      </c>
+      <c r="Y18">
+        <v>288.8</v>
+      </c>
+      <c r="Z18">
+        <v>251.7</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>275.1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="2">
+        <v>21280</v>
+      </c>
+      <c r="CK18" s="2">
+        <v>43252</v>
+      </c>
+      <c r="CL18">
+        <v>60</v>
+      </c>
+      <c r="CM18">
+        <v>999</v>
+      </c>
+      <c r="CN18" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO18" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP18">
+        <v>409</v>
+      </c>
+      <c r="CQ18">
+        <v>7</v>
+      </c>
+      <c r="CR18">
+        <v>113</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>0</v>
+      </c>
+      <c r="CY18">
+        <v>0</v>
+      </c>
+      <c r="CZ18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DB18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DF18">
+        <v>0.0008</v>
+      </c>
+      <c r="DG18">
+        <v>1</v>
+      </c>
+      <c r="DJ18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:114">
+      <c r="A19" s="1">
+        <v>7999</v>
+      </c>
+      <c r="B19">
+        <v>7999</v>
+      </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>2333603</v>
+      </c>
+      <c r="G19">
+        <v>67.8</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>55000</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19">
+        <v>12</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>122</v>
+      </c>
+      <c r="R19">
+        <v>67.8</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19" s="2">
+        <v>43374</v>
+      </c>
+      <c r="W19" s="2">
+        <v>45930</v>
+      </c>
+      <c r="X19">
+        <v>397.1</v>
+      </c>
+      <c r="Y19">
+        <v>397.1</v>
+      </c>
+      <c r="Z19">
+        <v>346</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>346</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
+        <v>0</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>125</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>131</v>
+      </c>
+      <c r="CA19">
+        <v>0</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>137</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="2">
+        <v>24552</v>
+      </c>
+      <c r="CK19" s="2">
+        <v>43374</v>
+      </c>
+      <c r="CL19">
+        <v>52</v>
+      </c>
+      <c r="CM19">
+        <v>999</v>
+      </c>
+      <c r="CN19" s="3">
+        <v>43465</v>
+      </c>
+      <c r="CO19" s="3">
+        <v>55884</v>
+      </c>
+      <c r="CP19">
+        <v>409</v>
+      </c>
+      <c r="CQ19">
+        <v>3</v>
+      </c>
+      <c r="CR19">
+        <v>81</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>138</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>138</v>
+      </c>
+      <c r="CW19">
+        <v>67.8</v>
+      </c>
+      <c r="CX19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="CZ19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DB19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DF19">
+        <v>0.0008</v>
+      </c>
+      <c r="DG19">
+        <v>1</v>
+      </c>
+      <c r="DJ19">
         <v>0</v>
       </c>
     </row>

--- a/zJO/check portefeuille.xlsx
+++ b/zJO/check portefeuille.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="136">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -356,15 +356,6 @@
   </si>
   <si>
     <t>GKM1995</t>
-  </si>
-  <si>
-    <t>GKF1995</t>
-  </si>
-  <si>
-    <t>EKM1995</t>
-  </si>
-  <si>
-    <t>EKF1995</t>
   </si>
   <si>
     <t>A</t>
@@ -1191,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="R2">
         <v>432.4</v>
@@ -1233,127 +1224,127 @@
         <v>1</v>
       </c>
       <c r="AE2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG2">
         <v>3.5</v>
       </c>
       <c r="AH2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI2" t="s">
         <v>126</v>
       </c>
-      <c r="AI2" t="s">
-        <v>129</v>
-      </c>
       <c r="AJ2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="s">
         <v>125</v>
       </c>
-      <c r="AK2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>128</v>
-      </c>
       <c r="AP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="s">
         <v>125</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AW2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="s">
         <v>125</v>
       </c>
-      <c r="AR2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="BC2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="s">
         <v>125</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="s">
         <v>125</v>
       </c>
-      <c r="AY2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>128</v>
-      </c>
       <c r="BQ2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT2">
         <v>0</v>
@@ -1365,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="BW2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -1395,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="CG2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -1434,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="CT2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW2">
         <v>432.4</v>
@@ -1520,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R3">
         <v>96.3</v>
@@ -1562,106 +1553,106 @@
         <v>2</v>
       </c>
       <c r="AE3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AG3">
         <v>3.5</v>
       </c>
       <c r="AH3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL3" t="s">
         <v>127</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>130</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -1673,16 +1664,16 @@
         <v>293.2</v>
       </c>
       <c r="BP3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BQ3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -1694,16 +1685,16 @@
         <v>0</v>
       </c>
       <c r="BW3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1724,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="CG3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -1763,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="CT3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW3">
         <v>96.3</v>
@@ -1840,7 +1831,7 @@
         <v>2.5</v>
       </c>
       <c r="N4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O4">
         <v>12</v>
@@ -1849,7 +1840,7 @@
         <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R4">
         <v>126.8</v>
@@ -1891,127 +1882,127 @@
         <v>1</v>
       </c>
       <c r="AE4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AF4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG4">
         <v>2.5</v>
       </c>
       <c r="AH4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AI4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
         <v>125</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AP4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="s">
         <v>125</v>
       </c>
-      <c r="AK4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="AW4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="s">
         <v>125</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="BC4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
         <v>125</v>
       </c>
-      <c r="AR4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW4" t="s">
+      <c r="BJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="s">
         <v>125</v>
       </c>
-      <c r="AX4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>128</v>
-      </c>
       <c r="BQ4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -2023,16 +2014,16 @@
         <v>0</v>
       </c>
       <c r="BW4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -2053,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="CG4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH4">
         <v>0</v>
@@ -2092,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="CT4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW4">
         <v>126.8</v>
@@ -2178,7 +2169,7 @@
         <v>17</v>
       </c>
       <c r="Q5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R5">
         <v>635.1</v>
@@ -2220,85 +2211,85 @@
         <v>2</v>
       </c>
       <c r="AE5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AG5">
         <v>2.5</v>
       </c>
       <c r="AH5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI5" t="s">
         <v>126</v>
       </c>
-      <c r="AI5" t="s">
-        <v>129</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AK5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="s">
         <v>130</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR5" t="s">
+      <c r="BC5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE5" t="s">
         <v>131</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>134</v>
       </c>
       <c r="BF5">
         <v>0</v>
@@ -2310,37 +2301,37 @@
         <v>27.5</v>
       </c>
       <c r="BI5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="BJ5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="s">
         <v>125</v>
       </c>
-      <c r="BK5" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>0</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>128</v>
-      </c>
       <c r="BQ5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT5">
         <v>0</v>
@@ -2352,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="BW5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA5">
         <v>0</v>
@@ -2382,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="CG5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -2421,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CT5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW5">
         <v>635.1</v>
@@ -2507,7 +2498,7 @@
         <v>17</v>
       </c>
       <c r="Q6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R6">
         <v>6464.8</v>
@@ -2549,127 +2540,127 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG6">
         <v>2.5</v>
       </c>
       <c r="AH6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" t="s">
         <v>126</v>
       </c>
-      <c r="AI6" t="s">
-        <v>129</v>
-      </c>
       <c r="AJ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="s">
         <v>125</v>
       </c>
-      <c r="AK6" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>128</v>
-      </c>
       <c r="AP6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="s">
         <v>125</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AW6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="s">
         <v>125</v>
       </c>
-      <c r="AR6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW6" t="s">
+      <c r="BC6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
         <v>125</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="BJ6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="s">
         <v>125</v>
       </c>
-      <c r="AY6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>128</v>
-      </c>
       <c r="BQ6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT6">
         <v>0</v>
@@ -2681,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="BW6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -2711,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="CG6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH6">
         <v>0</v>
@@ -2750,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="CT6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW6">
         <v>6464.8</v>
@@ -2827,7 +2818,7 @@
         <v>2.5</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O7">
         <v>12</v>
@@ -2836,7 +2827,7 @@
         <v>17</v>
       </c>
       <c r="Q7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R7">
         <v>1848.7</v>
@@ -2878,127 +2869,127 @@
         <v>1</v>
       </c>
       <c r="AE7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AF7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG7">
         <v>2.5</v>
       </c>
       <c r="AH7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" t="s">
         <v>126</v>
       </c>
-      <c r="AI7" t="s">
-        <v>129</v>
-      </c>
       <c r="AJ7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="s">
         <v>125</v>
       </c>
-      <c r="AK7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>128</v>
-      </c>
       <c r="AP7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="s">
         <v>125</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AW7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="s">
         <v>125</v>
       </c>
-      <c r="AR7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW7" t="s">
+      <c r="BC7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="s">
         <v>125</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="BJ7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="s">
         <v>125</v>
       </c>
-      <c r="AY7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>131</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>128</v>
-      </c>
       <c r="BQ7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT7">
         <v>0</v>
@@ -3010,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="BW7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA7">
         <v>0</v>
@@ -3040,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="CG7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH7">
         <v>0</v>
@@ -3079,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="CT7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW7">
         <v>1848.7</v>
@@ -3156,7 +3147,7 @@
         <v>2.5</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O8">
         <v>12</v>
@@ -3165,7 +3156,7 @@
         <v>16</v>
       </c>
       <c r="Q8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R8">
         <v>465.3</v>
@@ -3207,67 +3198,67 @@
         <v>1</v>
       </c>
       <c r="AE8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG8">
         <v>2.5</v>
       </c>
       <c r="AH8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI8" t="s">
         <v>126</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="s">
         <v>129</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AW8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY8" t="s">
         <v>127</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>130</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -3276,16 +3267,16 @@
         <v>94.5</v>
       </c>
       <c r="BB8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BC8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BF8">
         <v>0</v>
@@ -3297,16 +3288,16 @@
         <v>24</v>
       </c>
       <c r="BI8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="BJ8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BK8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="BM8">
         <v>0</v>
@@ -3318,16 +3309,16 @@
         <v>431.2</v>
       </c>
       <c r="BP8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="BQ8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BR8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="BT8">
         <v>0</v>
@@ -3339,16 +3330,16 @@
         <v>157.5</v>
       </c>
       <c r="BW8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA8">
         <v>0</v>
@@ -3369,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="CG8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH8">
         <v>0</v>
@@ -3408,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="CT8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW8">
         <v>465.3</v>
@@ -3494,7 +3485,7 @@
         <v>16</v>
       </c>
       <c r="Q9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R9">
         <v>2011.8</v>
@@ -3536,67 +3527,67 @@
         <v>1</v>
       </c>
       <c r="AE9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG9">
         <v>2.5</v>
       </c>
       <c r="AH9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI9" t="s">
         <v>126</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="s">
         <v>129</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AW9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY9" t="s">
         <v>127</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>130</v>
       </c>
       <c r="AZ9">
         <v>0</v>
@@ -3605,16 +3596,16 @@
         <v>126</v>
       </c>
       <c r="BB9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BC9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BF9">
         <v>0</v>
@@ -3626,37 +3617,37 @@
         <v>18.4</v>
       </c>
       <c r="BI9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS9" t="s">
         <v>127</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>125</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>130</v>
       </c>
       <c r="BT9">
         <v>0</v>
@@ -3668,16 +3659,16 @@
         <v>210</v>
       </c>
       <c r="BW9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA9">
         <v>0</v>
@@ -3698,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="CG9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH9">
         <v>0</v>
@@ -3737,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="CT9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW9">
         <v>2011.8</v>
@@ -3823,7 +3814,7 @@
         <v>14</v>
       </c>
       <c r="Q10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R10">
         <v>2818.2</v>
@@ -3865,85 +3856,85 @@
         <v>1</v>
       </c>
       <c r="AE10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG10">
         <v>2</v>
       </c>
       <c r="AH10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AI10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
         <v>125</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AP10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="s">
         <v>125</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AW10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE10" t="s">
         <v>131</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>134</v>
       </c>
       <c r="BF10">
         <v>0</v>
@@ -3955,37 +3946,37 @@
         <v>30.5</v>
       </c>
       <c r="BI10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="BJ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="s">
         <v>125</v>
       </c>
-      <c r="BK10" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>128</v>
-      </c>
       <c r="BQ10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT10">
         <v>0</v>
@@ -3997,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="BW10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA10">
         <v>0</v>
@@ -4027,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="CG10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH10">
         <v>0</v>
@@ -4066,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="CT10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW10">
         <v>2818.2</v>
@@ -4152,7 +4143,7 @@
         <v>14</v>
       </c>
       <c r="Q11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R11">
         <v>523.8</v>
@@ -4194,67 +4185,67 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG11">
         <v>2</v>
       </c>
       <c r="AH11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI11" t="s">
         <v>126</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="s">
         <v>129</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>132</v>
-      </c>
       <c r="AW11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AX11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AY11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AZ11">
         <v>0</v>
@@ -4263,16 +4254,16 @@
         <v>189</v>
       </c>
       <c r="BB11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BC11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BF11">
         <v>0</v>
@@ -4284,16 +4275,16 @@
         <v>22.6</v>
       </c>
       <c r="BI11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="BJ11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BK11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BM11">
         <v>0</v>
@@ -4305,16 +4296,16 @@
         <v>0</v>
       </c>
       <c r="BP11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="BQ11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="BR11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="BT11">
         <v>0</v>
@@ -4326,16 +4317,16 @@
         <v>315</v>
       </c>
       <c r="BW11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA11">
         <v>0</v>
@@ -4356,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="CG11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH11">
         <v>0</v>
@@ -4395,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="CT11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW11">
         <v>523.8</v>
@@ -4472,7 +4463,7 @@
         <v>1.25</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O12">
         <v>12</v>
@@ -4481,7 +4472,7 @@
         <v>8</v>
       </c>
       <c r="Q12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R12">
         <v>6881.7</v>
@@ -4523,25 +4514,25 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG12">
         <v>1.25</v>
       </c>
       <c r="AH12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI12" t="s">
         <v>126</v>
       </c>
-      <c r="AI12" t="s">
-        <v>129</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -4553,16 +4544,16 @@
         <v>0</v>
       </c>
       <c r="AO12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AQ12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AR12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AS12">
         <v>0</v>
@@ -4574,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="AV12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AW12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AX12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AY12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AZ12">
         <v>0</v>
@@ -4592,16 +4583,16 @@
         <v>0</v>
       </c>
       <c r="BB12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BC12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BD12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF12">
         <v>0</v>
@@ -4613,16 +4604,16 @@
         <v>0</v>
       </c>
       <c r="BI12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BJ12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BK12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BM12">
         <v>0</v>
@@ -4634,16 +4625,16 @@
         <v>0</v>
       </c>
       <c r="BP12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BQ12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT12">
         <v>0</v>
@@ -4655,16 +4646,16 @@
         <v>0</v>
       </c>
       <c r="BW12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA12">
         <v>0</v>
@@ -4685,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="CG12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH12">
         <v>0</v>
@@ -4724,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="CT12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW12">
         <v>6881.7</v>
@@ -4801,7 +4792,7 @@
         <v>0.25</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -4810,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="Q13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R13">
         <v>11370.2</v>
@@ -4852,25 +4843,25 @@
         <v>1</v>
       </c>
       <c r="AE13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG13">
         <v>0.25</v>
       </c>
       <c r="AH13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AI13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AJ13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -4882,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="AO13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AQ13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AR13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AS13">
         <v>0</v>
@@ -4903,16 +4894,16 @@
         <v>0</v>
       </c>
       <c r="AV13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AW13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AX13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AY13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -4921,16 +4912,16 @@
         <v>0</v>
       </c>
       <c r="BB13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BC13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BD13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF13">
         <v>0</v>
@@ -4942,16 +4933,16 @@
         <v>0</v>
       </c>
       <c r="BI13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BJ13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BK13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BM13">
         <v>0</v>
@@ -4963,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="BP13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BQ13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT13">
         <v>0</v>
@@ -4984,16 +4975,16 @@
         <v>0</v>
       </c>
       <c r="BW13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA13">
         <v>0</v>
@@ -5014,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="CG13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH13">
         <v>0</v>
@@ -5053,10 +5044,10 @@
         <v>0</v>
       </c>
       <c r="CT13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW13">
         <v>11370.2</v>
@@ -5130,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -5139,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R14">
         <v>3.7</v>
@@ -5181,67 +5172,67 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="s">
         <v>124</v>
       </c>
-      <c r="AF14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AP14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW14" t="s">
         <v>126</v>
       </c>
-      <c r="AI14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="s">
+      <c r="AX14" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY14" t="s">
         <v>127</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>130</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -5250,58 +5241,58 @@
         <v>45.9</v>
       </c>
       <c r="BB14" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL14" t="s">
         <v>127</v>
       </c>
-      <c r="BC14" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE14" t="s">
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS14" t="s">
         <v>131</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>135</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>130</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>125</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>134</v>
       </c>
       <c r="BT14">
         <v>0</v>
@@ -5313,16 +5304,16 @@
         <v>61.2</v>
       </c>
       <c r="BW14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA14">
         <v>0</v>
@@ -5343,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="CG14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH14">
         <v>0</v>
@@ -5382,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="CT14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW14">
         <v>44.5</v>
@@ -5459,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O15">
         <v>4</v>
@@ -5468,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="Q15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R15">
         <v>288.4</v>
@@ -5510,67 +5501,67 @@
         <v>1</v>
       </c>
       <c r="AE15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY15" t="s">
         <v>127</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>130</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -5579,16 +5570,16 @@
         <v>61.8</v>
       </c>
       <c r="BB15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BC15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BD15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF15">
         <v>0</v>
@@ -5600,16 +5591,16 @@
         <v>0</v>
       </c>
       <c r="BI15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BJ15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BK15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BM15">
         <v>0</v>
@@ -5621,16 +5612,16 @@
         <v>0</v>
       </c>
       <c r="BP15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BQ15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT15">
         <v>0</v>
@@ -5642,16 +5633,16 @@
         <v>0</v>
       </c>
       <c r="BW15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA15">
         <v>0</v>
@@ -5672,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="CG15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH15">
         <v>0</v>
@@ -5711,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="CT15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW15">
         <v>77.50000000000001</v>
@@ -5788,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -5797,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R16">
         <v>277.4</v>
@@ -5839,46 +5830,46 @@
         <v>1</v>
       </c>
       <c r="AE16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="s">
         <v>124</v>
       </c>
-      <c r="AF16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>127</v>
-      </c>
       <c r="AP16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AQ16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AR16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AS16">
         <v>0</v>
@@ -5890,16 +5881,16 @@
         <v>0</v>
       </c>
       <c r="AV16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AW16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AX16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AY16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AZ16">
         <v>0</v>
@@ -5908,16 +5899,16 @@
         <v>0</v>
       </c>
       <c r="BB16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BC16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BD16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF16">
         <v>0</v>
@@ -5929,16 +5920,16 @@
         <v>0</v>
       </c>
       <c r="BI16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BJ16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BK16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BM16">
         <v>0</v>
@@ -5950,16 +5941,16 @@
         <v>0</v>
       </c>
       <c r="BP16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BQ16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT16">
         <v>0</v>
@@ -5971,16 +5962,16 @@
         <v>0</v>
       </c>
       <c r="BW16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA16">
         <v>0</v>
@@ -6001,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="CG16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -6040,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="CT16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW16">
         <v>234.5</v>
@@ -6117,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -6126,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R17">
         <v>384.4</v>
@@ -6168,25 +6159,25 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AI17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AJ17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -6198,16 +6189,16 @@
         <v>0</v>
       </c>
       <c r="AO17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AQ17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AR17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AS17">
         <v>0</v>
@@ -6219,16 +6210,16 @@
         <v>0</v>
       </c>
       <c r="AV17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AW17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AX17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AY17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AZ17">
         <v>0</v>
@@ -6237,16 +6228,16 @@
         <v>0</v>
       </c>
       <c r="BB17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BC17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BD17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF17">
         <v>0</v>
@@ -6258,16 +6249,16 @@
         <v>0</v>
       </c>
       <c r="BI17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BJ17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BK17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BM17">
         <v>0</v>
@@ -6279,16 +6270,16 @@
         <v>0</v>
       </c>
       <c r="BP17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BQ17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT17">
         <v>0</v>
@@ -6300,16 +6291,16 @@
         <v>0</v>
       </c>
       <c r="BW17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA17">
         <v>0</v>
@@ -6330,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="CG17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH17">
         <v>0</v>
@@ -6369,10 +6360,10 @@
         <v>0</v>
       </c>
       <c r="CT17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW17">
         <v>141.7</v>
@@ -6446,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O18">
         <v>12</v>
@@ -6455,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R18">
         <v>36.5</v>
@@ -6497,46 +6488,46 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="s">
         <v>124</v>
       </c>
-      <c r="AF18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>127</v>
-      </c>
       <c r="AP18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AQ18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AR18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AS18">
         <v>0</v>
@@ -6548,16 +6539,16 @@
         <v>0</v>
       </c>
       <c r="AV18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AW18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AX18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AY18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -6566,16 +6557,16 @@
         <v>0</v>
       </c>
       <c r="BB18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BC18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BD18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF18">
         <v>0</v>
@@ -6587,16 +6578,16 @@
         <v>0</v>
       </c>
       <c r="BI18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BJ18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BK18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BM18">
         <v>0</v>
@@ -6608,16 +6599,16 @@
         <v>0</v>
       </c>
       <c r="BP18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BQ18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT18">
         <v>0</v>
@@ -6629,16 +6620,16 @@
         <v>0</v>
       </c>
       <c r="BW18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA18">
         <v>0</v>
@@ -6659,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="CG18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH18">
         <v>0</v>
@@ -6698,10 +6689,10 @@
         <v>0</v>
       </c>
       <c r="CT18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW18">
         <v>0</v>
@@ -6775,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O19">
         <v>12</v>
@@ -6784,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R19">
         <v>67.8</v>
@@ -6826,25 +6817,25 @@
         <v>1</v>
       </c>
       <c r="AE19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AG19">
         <v>0</v>
       </c>
       <c r="AH19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AI19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AJ19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AK19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -6856,16 +6847,16 @@
         <v>0</v>
       </c>
       <c r="AO19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AP19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AQ19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AR19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AS19">
         <v>0</v>
@@ -6877,16 +6868,16 @@
         <v>0</v>
       </c>
       <c r="AV19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AW19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AX19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AY19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -6895,16 +6886,16 @@
         <v>0</v>
       </c>
       <c r="BB19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BC19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BD19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BE19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BF19">
         <v>0</v>
@@ -6916,16 +6907,16 @@
         <v>0</v>
       </c>
       <c r="BI19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BJ19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BK19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BL19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BM19">
         <v>0</v>
@@ -6937,16 +6928,16 @@
         <v>0</v>
       </c>
       <c r="BP19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BQ19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BR19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BS19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BT19">
         <v>0</v>
@@ -6958,16 +6949,16 @@
         <v>0</v>
       </c>
       <c r="BW19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BX19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BY19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BZ19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="CA19">
         <v>0</v>
@@ -6988,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="CG19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="CH19">
         <v>0</v>
@@ -7027,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="CT19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CU19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="CW19">
         <v>67.8</v>
